--- a/public/excel/Sektor 2.xlsx
+++ b/public/excel/Sektor 2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMER\LARAVEL\gkps-sidorame\public\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3A8C95-F8A1-4AED-A324-A463BE44DAB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="261">
   <si>
     <t>KODE KELUARGA</t>
   </si>
@@ -36,40 +42,778 @@
     <t>KATEGORIAL</t>
   </si>
   <si>
-    <t>St. Annauli br Girsang</t>
-  </si>
-  <si>
-    <t>Dian Bernhard Munthe</t>
-  </si>
-  <si>
-    <t>Dewi Olivia</t>
-  </si>
-  <si>
-    <t>Arif Budima Munthe</t>
-  </si>
-  <si>
-    <t>Sarlina Jiniati br hombing</t>
-  </si>
-  <si>
-    <t>Anugrah Y. Munthe</t>
-  </si>
-  <si>
-    <t>Andrial Tulus Munthe</t>
-  </si>
-  <si>
-    <t>Syakia Yoselyn Munthe</t>
-  </si>
-  <si>
     <t>001_0</t>
   </si>
   <si>
     <t>002_1</t>
+  </si>
+  <si>
+    <t>St. Eldina br Damanik</t>
+  </si>
+  <si>
+    <t>M br Sijabat</t>
+  </si>
+  <si>
+    <t>Debora Annauli br Purba</t>
+  </si>
+  <si>
+    <t>003_1</t>
+  </si>
+  <si>
+    <t>Lihardo Saragih</t>
+  </si>
+  <si>
+    <t>Marlina br Banjarnahor</t>
+  </si>
+  <si>
+    <t>Kevin Josua Saragih</t>
+  </si>
+  <si>
+    <t>Josephan Jeremia Saragih</t>
+  </si>
+  <si>
+    <t>004_0</t>
+  </si>
+  <si>
+    <t>St. Rosnisinta Girsang</t>
+  </si>
+  <si>
+    <t>Roni Syahputra Sinaga</t>
+  </si>
+  <si>
+    <t>May Thania br Sinaga</t>
+  </si>
+  <si>
+    <t>005_0</t>
+  </si>
+  <si>
+    <t>St. Aller Silalahi</t>
+  </si>
+  <si>
+    <t>006_1</t>
+  </si>
+  <si>
+    <t>St. Kristian Silalahi</t>
+  </si>
+  <si>
+    <t>Febriany br Manurung</t>
+  </si>
+  <si>
+    <t>007_0</t>
+  </si>
+  <si>
+    <t>Dameria br Padang</t>
+  </si>
+  <si>
+    <t>Michael Kristian Silalahi</t>
+  </si>
+  <si>
+    <t>008_1</t>
+  </si>
+  <si>
+    <t>Ir. Robert Sinaga</t>
+  </si>
+  <si>
+    <t>Ernida br Purba</t>
+  </si>
+  <si>
+    <t>Andre Damara Sinaga</t>
+  </si>
+  <si>
+    <t>009_0</t>
+  </si>
+  <si>
+    <t>Delviana br Munthe</t>
+  </si>
+  <si>
+    <t>010_0</t>
+  </si>
+  <si>
+    <t>R. br Sinaga (Mak Caca)</t>
+  </si>
+  <si>
+    <t>011_1</t>
+  </si>
+  <si>
+    <t>Markus Sani Siregar</t>
+  </si>
+  <si>
+    <t>Linda br Simanjuntak</t>
+  </si>
+  <si>
+    <t>012_1</t>
+  </si>
+  <si>
+    <t>Elpan S. Simanjorang</t>
+  </si>
+  <si>
+    <t>Bertha Cristianne br Girsang</t>
+  </si>
+  <si>
+    <t>Ucok</t>
+  </si>
+  <si>
+    <t>013_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. E Onan Purba </t>
+  </si>
+  <si>
+    <t>Sintaulina br Samosir</t>
+  </si>
+  <si>
+    <t>Rosanita V br Purba</t>
+  </si>
+  <si>
+    <t>014_0</t>
+  </si>
+  <si>
+    <t>St. Rama Farida br Sinaga</t>
+  </si>
+  <si>
+    <t>Cecilia br Saragih</t>
+  </si>
+  <si>
+    <t>015_1</t>
+  </si>
+  <si>
+    <t>Deardo P Girsang</t>
+  </si>
+  <si>
+    <t>Kartina br Silalahi</t>
+  </si>
+  <si>
+    <t>Pratiwi Lestari br Girsang</t>
+  </si>
+  <si>
+    <t>Fratama Girsang</t>
+  </si>
+  <si>
+    <t>016_1</t>
+  </si>
+  <si>
+    <t>St. Ir Sahat M Purba</t>
+  </si>
+  <si>
+    <t>Dr Rosita br Sinaga</t>
+  </si>
+  <si>
+    <t>Andreas R Purba</t>
+  </si>
+  <si>
+    <t>Mickael J Purba</t>
+  </si>
+  <si>
+    <t>Jeremi D Purba</t>
+  </si>
+  <si>
+    <t>017_0</t>
+  </si>
+  <si>
+    <t>Ny. St. JK Saragih Dorlin Girsang</t>
+  </si>
+  <si>
+    <t>018_0</t>
+  </si>
+  <si>
+    <t>Mahdalena br Purba</t>
+  </si>
+  <si>
+    <t>019_0</t>
+  </si>
+  <si>
+    <t>Eduard Manurung</t>
+  </si>
+  <si>
+    <t>Erna T Manurung</t>
+  </si>
+  <si>
+    <t>Eko S Manurung</t>
+  </si>
+  <si>
+    <t>020_0</t>
+  </si>
+  <si>
+    <t>Ny. St. WS Saragih Orita br Girsang</t>
+  </si>
+  <si>
+    <t>021_1</t>
+  </si>
+  <si>
+    <t>Palti Chris Tovel Girsang</t>
+  </si>
+  <si>
+    <t>Reniwati Sihaloho</t>
+  </si>
+  <si>
+    <t>022_1</t>
+  </si>
+  <si>
+    <t>Ir. Robert Gultom</t>
+  </si>
+  <si>
+    <t>St. Ruslinda Purba</t>
+  </si>
+  <si>
+    <t>Rudolf Imanuel Gultom</t>
+  </si>
+  <si>
+    <t>Sarah Berliana Gultom</t>
+  </si>
+  <si>
+    <t>023_0</t>
+  </si>
+  <si>
+    <t>Juliana br Purba</t>
+  </si>
+  <si>
+    <t>Kevin Sipayung</t>
+  </si>
+  <si>
+    <t>Alfonso Sipayung</t>
+  </si>
+  <si>
+    <t>Gerhard Sipayung</t>
+  </si>
+  <si>
+    <t>024_0</t>
+  </si>
+  <si>
+    <t>Ny. Wanson Ameria br Manihuruk</t>
+  </si>
+  <si>
+    <t>Desi Indrawati br Haloho</t>
+  </si>
+  <si>
+    <t>Ganda Putra Haloho</t>
+  </si>
+  <si>
+    <t>025_1</t>
+  </si>
+  <si>
+    <t>Benny Janerson Sihaloho</t>
+  </si>
+  <si>
+    <t>Christine br Hutagaol</t>
+  </si>
+  <si>
+    <t>Junita br Sihaloho</t>
+  </si>
+  <si>
+    <t>Sri br Sihaloho</t>
+  </si>
+  <si>
+    <t>Theresia br Sihaloho</t>
+  </si>
+  <si>
+    <t>026_0</t>
+  </si>
+  <si>
+    <t>Csy. Hotmalina br Sinaga</t>
+  </si>
+  <si>
+    <t>Shara Hagia br Saragih</t>
+  </si>
+  <si>
+    <t>Tabitha Deartha br Saragih</t>
+  </si>
+  <si>
+    <t>Warni br Saragih</t>
+  </si>
+  <si>
+    <t>027_1</t>
+  </si>
+  <si>
+    <t>Dr. Birma Saragih</t>
+  </si>
+  <si>
+    <t>Dra. Sondang br Sihite</t>
+  </si>
+  <si>
+    <t>Goftar Saragih</t>
+  </si>
+  <si>
+    <t>Elsa Tamara br Saragih</t>
+  </si>
+  <si>
+    <t>Jonathan Saragih</t>
+  </si>
+  <si>
+    <t>028_0</t>
+  </si>
+  <si>
+    <t>N br Haloho</t>
+  </si>
+  <si>
+    <t>Sabartua Sinaga</t>
+  </si>
+  <si>
+    <t>Lista Herawati br Sinaga</t>
+  </si>
+  <si>
+    <t>Mesri br Sinaga</t>
+  </si>
+  <si>
+    <t>Budi Irianto Sinaga</t>
+  </si>
+  <si>
+    <t>029_1</t>
+  </si>
+  <si>
+    <t>St. Risben Efendy Purba</t>
+  </si>
+  <si>
+    <t>St. Maria S. Sitio</t>
+  </si>
+  <si>
+    <t>Sudi Raja Purba</t>
+  </si>
+  <si>
+    <t>Amelia Anjeli br Purba</t>
+  </si>
+  <si>
+    <t>Rendy William Purba</t>
+  </si>
+  <si>
+    <t>030_1</t>
+  </si>
+  <si>
+    <t>Luther Walmen Purba</t>
+  </si>
+  <si>
+    <t>Novalina br Hutabarat</t>
+  </si>
+  <si>
+    <t>Paulus Felix Purba</t>
+  </si>
+  <si>
+    <t>031_1</t>
+  </si>
+  <si>
+    <t>Antonius P. Purba</t>
+  </si>
+  <si>
+    <t>Csy. Lenni Santi Tobing</t>
+  </si>
+  <si>
+    <t>Tesalonika br Purba</t>
+  </si>
+  <si>
+    <t>032_0</t>
+  </si>
+  <si>
+    <t>Ny Binara Megawati br Nainggolan</t>
+  </si>
+  <si>
+    <t>Yosua</t>
+  </si>
+  <si>
+    <t>033_1</t>
+  </si>
+  <si>
+    <t>Danres Saragih</t>
+  </si>
+  <si>
+    <t>Csy. Rosally br Panggabean</t>
+  </si>
+  <si>
+    <t>Peniel Junior Saragih</t>
+  </si>
+  <si>
+    <t>Goddani Saragih</t>
+  </si>
+  <si>
+    <t>034_1</t>
+  </si>
+  <si>
+    <t>St. Armansius Silalahi</t>
+  </si>
+  <si>
+    <t>Kristina br Ginting</t>
+  </si>
+  <si>
+    <t>Gesida Indri br Silalahi</t>
+  </si>
+  <si>
+    <t>br Silalahi</t>
+  </si>
+  <si>
+    <t>Jordan Silalahi</t>
+  </si>
+  <si>
+    <t>035_1</t>
+  </si>
+  <si>
+    <t>Maurits Damanik</t>
+  </si>
+  <si>
+    <t>Laura br Sianturi</t>
+  </si>
+  <si>
+    <t>Louis Adam Pratama Damanik</t>
+  </si>
+  <si>
+    <t>Juan Carlos Febrian Damanik</t>
+  </si>
+  <si>
+    <t>Angelica br Damanik</t>
+  </si>
+  <si>
+    <t>036_1</t>
+  </si>
+  <si>
+    <t>Joanli Rodiansen Sinaga</t>
+  </si>
+  <si>
+    <t>Novita Ratna S Sihaloho</t>
+  </si>
+  <si>
+    <t>Caroline Graziella Sinaga</t>
+  </si>
+  <si>
+    <t>037_1</t>
+  </si>
+  <si>
+    <t>Rikky Alberto Saragi Siadari</t>
+  </si>
+  <si>
+    <t>Nova Jasa br Siagian</t>
+  </si>
+  <si>
+    <t>Ivan Saragi</t>
+  </si>
+  <si>
+    <t>Putri A N Saragi</t>
+  </si>
+  <si>
+    <t>Ucok Saragi</t>
+  </si>
+  <si>
+    <t>038_1</t>
+  </si>
+  <si>
+    <t>Bernard K Saragih</t>
+  </si>
+  <si>
+    <t>Naomi Agustii Panggabean</t>
+  </si>
+  <si>
+    <t>William Alfagio Saragih</t>
+  </si>
+  <si>
+    <t>039_1</t>
+  </si>
+  <si>
+    <t>Wahdi Sinaga</t>
+  </si>
+  <si>
+    <t>Sinthalukinar Sihaloho</t>
+  </si>
+  <si>
+    <t>Eva Valerina Haloho</t>
+  </si>
+  <si>
+    <t>040_1</t>
+  </si>
+  <si>
+    <t>Henri Samuelson Purba</t>
+  </si>
+  <si>
+    <t>Anna Nelly br Nainggolan</t>
+  </si>
+  <si>
+    <t>Emmy Selcta Purba</t>
+  </si>
+  <si>
+    <t>Gema Haposan Purba</t>
+  </si>
+  <si>
+    <t>041_0</t>
+  </si>
+  <si>
+    <t>Ny. Antonius Sembiring Eva br Saragih</t>
+  </si>
+  <si>
+    <t>Persada Sembiring</t>
+  </si>
+  <si>
+    <t>Rutrenata br Sembiring</t>
+  </si>
+  <si>
+    <t>Henri Jona Sembiring</t>
+  </si>
+  <si>
+    <t>042_1</t>
+  </si>
+  <si>
+    <t>Richardo S Damanik</t>
+  </si>
+  <si>
+    <t>Christina E Saragi</t>
+  </si>
+  <si>
+    <t>Benhard Damanik</t>
+  </si>
+  <si>
+    <t>Ucok Damanik</t>
+  </si>
+  <si>
+    <t>043_1</t>
+  </si>
+  <si>
+    <t>Hotber Sihaloho</t>
+  </si>
+  <si>
+    <t>Hesti Wulandari br Sinaga</t>
+  </si>
+  <si>
+    <t>Marthasya Ayudia P. Sihaloho</t>
+  </si>
+  <si>
+    <t>044_1</t>
+  </si>
+  <si>
+    <t>Erwin Bonar J. H. Gultom</t>
+  </si>
+  <si>
+    <t>Cristina Verawati Hutabarat</t>
+  </si>
+  <si>
+    <t>045_1</t>
+  </si>
+  <si>
+    <t>Frenky Sihombing</t>
+  </si>
+  <si>
+    <t>S br Barus</t>
+  </si>
+  <si>
+    <t>Meisya br Sihombing</t>
+  </si>
+  <si>
+    <t>Cahaya br Sihombing</t>
+  </si>
+  <si>
+    <t>Christovel Mohse Sihombing</t>
+  </si>
+  <si>
+    <t>046_1</t>
+  </si>
+  <si>
+    <t>Csy. Hendrik Holmes Sitio</t>
+  </si>
+  <si>
+    <t>M Erika br Simanjuntak</t>
+  </si>
+  <si>
+    <t>Mariana Angelyn Clarisa br Sitio</t>
+  </si>
+  <si>
+    <t>047_1</t>
+  </si>
+  <si>
+    <t>Sahala Silalahi</t>
+  </si>
+  <si>
+    <t>Laurina br Sitio</t>
+  </si>
+  <si>
+    <t>048_1</t>
+  </si>
+  <si>
+    <t>Horas Zerget H. Sidabariba</t>
+  </si>
+  <si>
+    <t>Hafri Marzoni br Munthe</t>
+  </si>
+  <si>
+    <t>Raja Renhar M. Sidabariba</t>
+  </si>
+  <si>
+    <t>Gema Harapan Sidabariba</t>
+  </si>
+  <si>
+    <t>Jonathan Sidabariba</t>
+  </si>
+  <si>
+    <t>049_1</t>
+  </si>
+  <si>
+    <t>Jans Roland Saragi</t>
+  </si>
+  <si>
+    <t>Csy. Rika Feramayanti br Sipayung</t>
+  </si>
+  <si>
+    <t>Fischer Saragi</t>
+  </si>
+  <si>
+    <t>Claudia br Saragi</t>
+  </si>
+  <si>
+    <t>050_1</t>
+  </si>
+  <si>
+    <t>Dani Girsang</t>
+  </si>
+  <si>
+    <t>br Sinaga</t>
+  </si>
+  <si>
+    <t>051_1</t>
+  </si>
+  <si>
+    <t>Wilson Parlindungan Purba</t>
+  </si>
+  <si>
+    <t>Hetty Siswati br Tambunan</t>
+  </si>
+  <si>
+    <t>Yohann Faye br Purba</t>
+  </si>
+  <si>
+    <t>Yolona Sky br Purba</t>
+  </si>
+  <si>
+    <t>052_1</t>
+  </si>
+  <si>
+    <t>Budi Silalahi</t>
+  </si>
+  <si>
+    <t>Normada br Purba</t>
+  </si>
+  <si>
+    <t>Novrida Dame br Silalahi</t>
+  </si>
+  <si>
+    <t>Rut Mariaty br Silalahi</t>
+  </si>
+  <si>
+    <t>Datut Parulian Silalahi</t>
+  </si>
+  <si>
+    <t>053_0</t>
+  </si>
+  <si>
+    <t>Wandy Damanik</t>
+  </si>
+  <si>
+    <t>Erikson Damanik</t>
+  </si>
+  <si>
+    <t>Junihar Damanik</t>
+  </si>
+  <si>
+    <t>Hanna Elfrida Damanik</t>
+  </si>
+  <si>
+    <t>054_0</t>
+  </si>
+  <si>
+    <t>Mahdalena br Sembiring</t>
+  </si>
+  <si>
+    <t>Noverawati br Saragih</t>
+  </si>
+  <si>
+    <t>Olivia br Saragih</t>
+  </si>
+  <si>
+    <t>Immanuel R Saragih</t>
+  </si>
+  <si>
+    <t>055_1</t>
+  </si>
+  <si>
+    <t>Janredy Purba</t>
+  </si>
+  <si>
+    <t>Vince br Saragih</t>
+  </si>
+  <si>
+    <t>056_1</t>
+  </si>
+  <si>
+    <t>Jones Purba</t>
+  </si>
+  <si>
+    <t>Talenta br Sihombing</t>
+  </si>
+  <si>
+    <t>Limel Kevin Purba</t>
+  </si>
+  <si>
+    <t>057_1</t>
+  </si>
+  <si>
+    <t>Hendra L. Tobing</t>
+  </si>
+  <si>
+    <t>Citra br Marbun</t>
+  </si>
+  <si>
+    <t>Nuel B L. Tobing</t>
+  </si>
+  <si>
+    <t>Tio Ivan L. Tobing</t>
+  </si>
+  <si>
+    <t>058_1</t>
+  </si>
+  <si>
+    <t>Dr. Johanner Silalahi</t>
+  </si>
+  <si>
+    <t>Ribka Sastri Simalango</t>
+  </si>
+  <si>
+    <t>059_1</t>
+  </si>
+  <si>
+    <t>Freddi Sihaloho</t>
+  </si>
+  <si>
+    <t>Sri Puspita br Sitio</t>
+  </si>
+  <si>
+    <t>060_1</t>
+  </si>
+  <si>
+    <t>Jahorman Purba</t>
+  </si>
+  <si>
+    <t>Regi Tiorida Gultom</t>
+  </si>
+  <si>
+    <t>061_1</t>
+  </si>
+  <si>
+    <t>Desborn R Purba</t>
+  </si>
+  <si>
+    <t>Tiorasi br Nadeak</t>
+  </si>
+  <si>
+    <t>Jovanca Mutiara Purba</t>
+  </si>
+  <si>
+    <t>062_1</t>
+  </si>
+  <si>
+    <t>Csy. Heri Purba</t>
+  </si>
+  <si>
+    <t>br Simangunsong</t>
+  </si>
+  <si>
+    <t>Butet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,7 +915,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -223,7 +967,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -417,18 +1161,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,16 +1202,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>15102</v>
+        <v>16738</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -475,33 +1219,30 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>29606</v>
+        <v>16738</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>34489</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -509,16 +1250,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>34895</v>
+        <v>28780</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -526,16 +1267,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>34786</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -543,16 +1281,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>42224</v>
+        <v>39720</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -560,16 +1298,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
       <c r="C8">
         <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43274</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -577,18 +1312,2986 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>43901</v>
+        <v>24577</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>34872</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>35929</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>17344</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>29943</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>35680</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>22282</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>23501</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>36173</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>23006</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>26216</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>25369</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>32369</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>31877</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>18216</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>30223</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>21954</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>37348</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>20149</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>21181</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>33329</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>34510</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>18867</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>22407</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>33274</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>33704</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>34510</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>15692</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>19384</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>19454</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>31198</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>33410</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>17470</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>20987</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>22860</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>33625</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <v>36831</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>19525</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>31025</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>32846</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>28773</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>39282</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>40159</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>41107</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2">
+        <v>43449</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>26925</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>37557</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>39344</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2">
+        <v>23742</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>22540</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
+        <v>22903</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>34060</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" s="2">
+        <v>35196</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>37641</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2">
+        <v>21544</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2">
+        <v>29725</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" s="2">
+        <v>29826</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2">
+        <v>30302</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2">
+        <v>32358</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
+        <v>23877</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>26103</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>35093</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>35939</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2">
+        <v>37862</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2">
+        <v>26469</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>29907</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2">
+        <v>37695</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2">
+        <v>25741</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>35774</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
+        <v>37791</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>26604</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2">
+        <v>38637</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2">
+        <v>26264</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>25766</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2">
+        <v>38632</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2">
+        <v>39250</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" s="2">
+        <v>25283</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2">
+        <v>28119</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>39672</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2">
+        <v>40675</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" t="s">
+        <v>137</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>138</v>
+      </c>
+      <c r="B104" t="s">
+        <v>141</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>138</v>
+      </c>
+      <c r="B105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>138</v>
+      </c>
+      <c r="B106" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>144</v>
+      </c>
+      <c r="B107" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" s="2">
+        <v>32538</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>144</v>
+      </c>
+      <c r="B108" t="s">
+        <v>146</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108" s="2">
+        <v>32744</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" t="s">
+        <v>147</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2">
+        <v>30416</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>148</v>
+      </c>
+      <c r="B111" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>148</v>
+      </c>
+      <c r="B112" t="s">
+        <v>151</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" s="2">
+        <v>40437</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114" t="s">
+        <v>152</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" s="2">
+        <v>28749</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" t="s">
+        <v>156</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116" s="2">
+        <v>29439</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>154</v>
+      </c>
+      <c r="B117" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="2">
+        <v>40116</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2">
+        <v>27010</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" t="s">
+        <v>160</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119" s="2">
+        <v>26694</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>158</v>
+      </c>
+      <c r="B120" t="s">
+        <v>161</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120" s="2">
+        <v>41373</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>162</v>
+      </c>
+      <c r="B121" t="s">
+        <v>163</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>162</v>
+      </c>
+      <c r="B122" t="s">
+        <v>164</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" t="s">
+        <v>165</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>162</v>
+      </c>
+      <c r="B124" t="s">
+        <v>166</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" s="2">
+        <v>41261</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>167</v>
+      </c>
+      <c r="B125" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125" s="2">
+        <v>25711</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>167</v>
+      </c>
+      <c r="B126" t="s">
+        <v>169</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" s="2">
+        <v>34659</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>167</v>
+      </c>
+      <c r="B127" t="s">
+        <v>170</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2">
+        <v>35402</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" t="s">
+        <v>171</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" s="2">
+        <v>40132</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>172</v>
+      </c>
+      <c r="B129" t="s">
+        <v>173</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" s="2">
+        <v>29197</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>172</v>
+      </c>
+      <c r="B130" t="s">
+        <v>174</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130" s="2">
+        <v>29150</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>172</v>
+      </c>
+      <c r="B131" t="s">
+        <v>175</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" s="2">
+        <v>40431</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>172</v>
+      </c>
+      <c r="B132" t="s">
+        <v>176</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>177</v>
+      </c>
+      <c r="B133" t="s">
+        <v>178</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" s="2">
+        <v>30602</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>177</v>
+      </c>
+      <c r="B134" t="s">
+        <v>179</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>177</v>
+      </c>
+      <c r="B135" t="s">
+        <v>180</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>181</v>
+      </c>
+      <c r="B136" t="s">
+        <v>182</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>181</v>
+      </c>
+      <c r="B137" t="s">
+        <v>183</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>184</v>
+      </c>
+      <c r="B138" t="s">
+        <v>185</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>184</v>
+      </c>
+      <c r="B139" t="s">
+        <v>186</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>184</v>
+      </c>
+      <c r="B140" t="s">
+        <v>187</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2">
+        <v>40944</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>184</v>
+      </c>
+      <c r="B141" t="s">
+        <v>188</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>184</v>
+      </c>
+      <c r="B142" t="s">
+        <v>189</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>190</v>
+      </c>
+      <c r="B143" t="s">
+        <v>191</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" s="2">
+        <v>29353</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>190</v>
+      </c>
+      <c r="B144" t="s">
+        <v>192</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2">
+        <v>29598</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>190</v>
+      </c>
+      <c r="B145" t="s">
+        <v>41</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>190</v>
+      </c>
+      <c r="B146" t="s">
+        <v>193</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2">
+        <v>40642</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>194</v>
+      </c>
+      <c r="B147" t="s">
+        <v>195</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>194</v>
+      </c>
+      <c r="B148" t="s">
+        <v>196</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>197</v>
+      </c>
+      <c r="B149" t="s">
+        <v>198</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>197</v>
+      </c>
+      <c r="B150" t="s">
+        <v>199</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150" s="2">
+        <v>28860</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>197</v>
+      </c>
+      <c r="B151" t="s">
+        <v>200</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>197</v>
+      </c>
+      <c r="B152" t="s">
+        <v>201</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>197</v>
+      </c>
+      <c r="B153" t="s">
+        <v>202</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>203</v>
+      </c>
+      <c r="B154" t="s">
+        <v>204</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>203</v>
+      </c>
+      <c r="B155" t="s">
+        <v>205</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>203</v>
+      </c>
+      <c r="B156" t="s">
+        <v>206</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>203</v>
+      </c>
+      <c r="B157" t="s">
+        <v>207</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>208</v>
+      </c>
+      <c r="B158" t="s">
+        <v>209</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>208</v>
+      </c>
+      <c r="B159" t="s">
+        <v>210</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>211</v>
+      </c>
+      <c r="B160" t="s">
+        <v>212</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" s="2">
+        <v>28501</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>211</v>
+      </c>
+      <c r="B161" t="s">
+        <v>213</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>211</v>
+      </c>
+      <c r="B162" t="s">
+        <v>214</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>211</v>
+      </c>
+      <c r="B163" t="s">
+        <v>215</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>216</v>
+      </c>
+      <c r="B164" t="s">
+        <v>217</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>216</v>
+      </c>
+      <c r="B165" t="s">
+        <v>218</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>216</v>
+      </c>
+      <c r="B166" t="s">
+        <v>219</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>216</v>
+      </c>
+      <c r="B167" t="s">
+        <v>220</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>216</v>
+      </c>
+      <c r="B168" t="s">
+        <v>221</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>222</v>
+      </c>
+      <c r="B169" t="s">
+        <v>223</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>222</v>
+      </c>
+      <c r="B170" t="s">
+        <v>224</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>222</v>
+      </c>
+      <c r="B171" t="s">
+        <v>225</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>222</v>
+      </c>
+      <c r="B172" t="s">
+        <v>226</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>227</v>
+      </c>
+      <c r="B173" t="s">
+        <v>228</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2">
+        <v>26302</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>227</v>
+      </c>
+      <c r="B174" t="s">
+        <v>229</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>227</v>
+      </c>
+      <c r="B175" t="s">
+        <v>230</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>227</v>
+      </c>
+      <c r="B176" t="s">
+        <v>231</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176" s="2">
+        <v>37933</v>
+      </c>
+      <c r="E176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>232</v>
+      </c>
+      <c r="B177" t="s">
+        <v>233</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>232</v>
+      </c>
+      <c r="B178" t="s">
+        <v>234</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>235</v>
+      </c>
+      <c r="B179" t="s">
+        <v>236</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>235</v>
+      </c>
+      <c r="B180" t="s">
+        <v>237</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180" s="2">
+        <v>29648</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>235</v>
+      </c>
+      <c r="B181" t="s">
+        <v>238</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>239</v>
+      </c>
+      <c r="B182" t="s">
+        <v>240</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182" s="2">
+        <v>26977</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>239</v>
+      </c>
+      <c r="B183" t="s">
+        <v>241</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>29377</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>239</v>
+      </c>
+      <c r="B184" t="s">
+        <v>242</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>239</v>
+      </c>
+      <c r="B185" t="s">
+        <v>243</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>244</v>
+      </c>
+      <c r="B186" t="s">
+        <v>245</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>244</v>
+      </c>
+      <c r="B187" t="s">
+        <v>246</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>247</v>
+      </c>
+      <c r="B188" t="s">
+        <v>248</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>247</v>
+      </c>
+      <c r="B189" t="s">
+        <v>249</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>250</v>
+      </c>
+      <c r="B190" t="s">
+        <v>251</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" s="2">
+        <v>18120</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>250</v>
+      </c>
+      <c r="B191" t="s">
+        <v>252</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191" s="2">
+        <v>19273</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>253</v>
+      </c>
+      <c r="B192" t="s">
+        <v>254</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>253</v>
+      </c>
+      <c r="B193" t="s">
+        <v>255</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>253</v>
+      </c>
+      <c r="B194" t="s">
+        <v>256</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>257</v>
+      </c>
+      <c r="B195" t="s">
+        <v>258</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>257</v>
+      </c>
+      <c r="B196" t="s">
+        <v>259</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>257</v>
+      </c>
+      <c r="B197" t="s">
+        <v>260</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="E197">
         <v>4</v>
       </c>
     </row>
